--- a/QA/testcases/EDockets/CASE/Create_DD_Case.xlsx
+++ b/QA/testcases/EDockets/CASE/Create_DD_Case.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="229">
   <si>
     <t>Step No</t>
   </si>
@@ -649,6 +649,69 @@
   </si>
   <si>
     <t>CLIENT_MATTER_MATTER_TEXTBOX</t>
+  </si>
+  <si>
+    <t>LOADING_ELEMENT_DISABLED</t>
+  </si>
+  <si>
+    <t>LOADING_ELEMENT_ENABLED</t>
+  </si>
+  <si>
+    <t>JURISDICTION_LABEL</t>
+  </si>
+  <si>
+    <t>CLIENT_FRAME_PAGE</t>
+  </si>
+  <si>
+    <t>CASEID_CLIENTDETAIL_PAGE</t>
+  </si>
+  <si>
+    <t>CLIENTID_CLIENTDETAIL_PAGE</t>
+  </si>
+  <si>
+    <t>MATTERID_CLIENTDETAIL_PAGE</t>
+  </si>
+  <si>
+    <t>SplitDetails</t>
+  </si>
+  <si>
+    <t>CLIENTNAME_SEARCH_PAGE</t>
+  </si>
+  <si>
+    <t>CASE_OPEN_BUTTON</t>
+  </si>
+  <si>
+    <t>CLIENTDETAIL_PAGE_IFRAME,IFRAME_END</t>
+  </si>
+  <si>
+    <t>COURTCASE_SEARCH_ICON</t>
+  </si>
+  <si>
+    <t>COURTCASE_POPUP_SEARCHCASES_TEXTBOX</t>
+  </si>
+  <si>
+    <t>COURTCASE_POPUP_FILTER_ALL_DROPDOWN</t>
+  </si>
+  <si>
+    <t>COURTCASE_SEARCH_ITEM</t>
+  </si>
+  <si>
+    <t>ENABLE_DOCKET_CHECKBOX</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>COURSTCASESET_LABEL</t>
+  </si>
+  <si>
+    <t>13,91</t>
+  </si>
+  <si>
+    <t>14,92</t>
+  </si>
+  <si>
+    <t>19,93</t>
   </si>
 </sst>
 </file>
@@ -732,7 +795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -748,6 +811,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,7 +895,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:H57" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:H97" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="2" name="Step No" dataDxfId="2"/>
     <tableColumn id="8" name="Action"/>
@@ -1119,7 +1183,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1127,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D16" activeCellId="1" sqref="E16 D16"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1448,89 +1512,70 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
-        <v>112</v>
-      </c>
+      <c r="D16" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" s="11"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="15.75">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>30</v>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>171</v>
-      </c>
-      <c r="G17" t="s">
-        <v>200</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="E17" s="11"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="15.75">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" t="s">
-        <v>112</v>
-      </c>
+      <c r="B18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" s="11"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75">
+    <row r="19" spans="1:8">
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19">
         <v>6</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>205</v>
-      </c>
       <c r="F19" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -1539,17 +1584,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>207</v>
+      </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="G20" t="s">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -1558,13 +1608,17 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>204</v>
+        <v>36</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>112</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -1573,61 +1627,46 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" t="s">
-        <v>120</v>
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="15.75">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>54</v>
+      <c r="B23" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" t="s">
-        <v>140</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="E23" s="11"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="15.75">
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s">
-        <v>120</v>
-      </c>
+      <c r="B24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24" s="11"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
@@ -1635,41 +1674,41 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" t="s">
-        <v>142</v>
+        <v>36</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25">
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="15.75">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="G26" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -1678,22 +1717,17 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" t="s">
-        <v>122</v>
+        <v>36</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27">
+        <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -1702,17 +1736,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" t="s">
-        <v>120</v>
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -1720,20 +1750,18 @@
       <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>146</v>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29">
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -1741,18 +1769,14 @@
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30">
+      <c r="B30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" t="s">
         <v>6</v>
       </c>
-      <c r="F30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" t="s">
-        <v>120</v>
+      <c r="D30" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -1760,20 +1784,18 @@
       <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>154</v>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31">
+        <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -1782,17 +1804,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32">
-        <v>5</v>
-      </c>
-      <c r="F32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" t="s">
-        <v>112</v>
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -1801,19 +1819,17 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>157</v>
+        <v>36</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33">
+        <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -1821,63 +1837,42 @@
       <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>34</v>
+      <c r="B34" t="s">
+        <v>30</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F34" t="s">
-        <v>160</v>
-      </c>
-      <c r="G34" t="s">
-        <v>161</v>
+        <v>220</v>
+      </c>
+      <c r="E34" t="s">
+        <v>224</v>
       </c>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75">
+    <row r="35" spans="1:8">
       <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F35" t="s">
-        <v>164</v>
-      </c>
-      <c r="G35" t="s">
-        <v>165</v>
-      </c>
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="7"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="16.5" customHeight="1">
       <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" t="s">
-        <v>120</v>
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -1886,16 +1881,17 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>149</v>
+        <v>36</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
+        <v>112</v>
       </c>
       <c r="H37" s="2"/>
     </row>
@@ -1904,18 +1900,9 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="10"/>
-      <c r="E38">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" t="s">
-        <v>112</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="D38" s="7"/>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8">
@@ -1926,43 +1913,27 @@
         <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="F39" t="s">
-        <v>167</v>
-      </c>
-      <c r="G39" t="s">
-        <v>168</v>
-      </c>
-      <c r="H39" s="2">
-        <v>34</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="6">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="F40" t="s">
-        <v>169</v>
-      </c>
-      <c r="G40" t="s">
-        <v>170</v>
-      </c>
-      <c r="H40" s="2">
-        <v>34</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="6">
@@ -1973,13 +1944,13 @@
       </c>
       <c r="D41" s="10"/>
       <c r="E41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
         <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="H41" s="2"/>
     </row>
@@ -1988,16 +1959,24 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>153</v>
-      </c>
-      <c r="D42" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" t="s">
+        <v>138</v>
+      </c>
       <c r="F42" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="G42" t="s">
-        <v>200</v>
-      </c>
-      <c r="H42" s="9"/>
+        <v>140</v>
+      </c>
+      <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="6">
@@ -2023,46 +2002,43 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>172</v>
+        <v>6</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" t="s">
+        <v>142</v>
       </c>
       <c r="F44" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="G44" t="s">
-        <v>174</v>
-      </c>
-      <c r="H44" s="2">
-        <v>34</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>172</v>
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45">
+        <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>176</v>
-      </c>
-      <c r="H45" s="2">
-        <v>34</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="6">
@@ -2075,16 +2051,16 @@
         <v>6</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="E46" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="F46" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="G46" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -2111,23 +2087,20 @@
       <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>54</v>
+      <c r="B48" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E48" t="s">
-        <v>182</v>
+        <v>9</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="F48" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="G48" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="H48" s="2"/>
     </row>
@@ -2140,7 +2113,7 @@
       </c>
       <c r="D49" s="10"/>
       <c r="E49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>36</v>
@@ -2154,23 +2127,20 @@
       <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>54</v>
+      <c r="B50" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="E50" t="s">
-        <v>186</v>
+        <v>6</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="F50" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="G50" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="H50" s="2"/>
     </row>
@@ -2183,13 +2153,13 @@
       </c>
       <c r="D51" s="10"/>
       <c r="E51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" t="s">
         <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H51" s="2"/>
     </row>
@@ -2203,14 +2173,14 @@
       <c r="C52" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="14" t="s">
-        <v>189</v>
+      <c r="D52" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="F52" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="G52" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="H52" s="2"/>
     </row>
@@ -2224,35 +2194,38 @@
       <c r="C53" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="14" t="s">
-        <v>189</v>
+      <c r="D53" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="F53" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="G53" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" ht="15.75">
       <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="14" t="s">
-        <v>194</v>
+      <c r="D54" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="F54" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="G54" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="H54" s="2"/>
     </row>
@@ -2271,7 +2244,7 @@
         <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="H55" s="2"/>
     </row>
@@ -2280,51 +2253,770 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" t="s">
-        <v>31</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="F56" t="s">
-        <v>173</v>
-      </c>
-      <c r="G56" t="s">
-        <v>198</v>
-      </c>
-      <c r="H56" s="2">
-        <v>34</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" t="s">
+        <v>112</v>
+      </c>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F58" t="s">
+        <v>167</v>
+      </c>
+      <c r="G58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H58" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F59" t="s">
+        <v>169</v>
+      </c>
+      <c r="G59" t="s">
+        <v>170</v>
+      </c>
+      <c r="H59" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="F60" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" t="s">
+        <v>112</v>
+      </c>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="13"/>
+      <c r="F61" t="s">
+        <v>171</v>
+      </c>
+      <c r="G61" t="s">
+        <v>200</v>
+      </c>
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" t="s">
+        <v>120</v>
+      </c>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F63" t="s">
+        <v>173</v>
+      </c>
+      <c r="G63" t="s">
+        <v>174</v>
+      </c>
+      <c r="H63" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F64" t="s">
+        <v>175</v>
+      </c>
+      <c r="G64" t="s">
+        <v>176</v>
+      </c>
+      <c r="H64" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" t="s">
+        <v>178</v>
+      </c>
+      <c r="F65" t="s">
+        <v>179</v>
+      </c>
+      <c r="G65" t="s">
+        <v>180</v>
+      </c>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="10"/>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66" t="s">
+        <v>120</v>
+      </c>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E67" t="s">
+        <v>182</v>
+      </c>
+      <c r="F67" t="s">
+        <v>183</v>
+      </c>
+      <c r="G67" t="s">
+        <v>184</v>
+      </c>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="6">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="10"/>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" t="s">
+        <v>120</v>
+      </c>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E69" t="s">
+        <v>186</v>
+      </c>
+      <c r="F69" t="s">
+        <v>187</v>
+      </c>
+      <c r="G69" t="s">
+        <v>188</v>
+      </c>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="6">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="10"/>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G70" t="s">
+        <v>120</v>
+      </c>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="6">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F71" t="s">
+        <v>190</v>
+      </c>
+      <c r="G71" t="s">
+        <v>191</v>
+      </c>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="6">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F72" t="s">
+        <v>192</v>
+      </c>
+      <c r="G72" t="s">
+        <v>193</v>
+      </c>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="6">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C73" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D73" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F73" t="s">
+        <v>195</v>
+      </c>
+      <c r="G73" t="s">
+        <v>196</v>
+      </c>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="6">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" s="10"/>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74" t="s">
+        <v>112</v>
+      </c>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="6">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F75" t="s">
+        <v>173</v>
+      </c>
+      <c r="G75" t="s">
+        <v>198</v>
+      </c>
+      <c r="H75" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="6">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F76" t="s">
         <v>124</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G76" t="s">
         <v>125</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="6">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="10"/>
+      <c r="E77">
+        <v>6</v>
+      </c>
+      <c r="F77" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" t="s">
+        <v>112</v>
+      </c>
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="6">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>70</v>
+      </c>
+      <c r="D78" s="7"/>
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="6">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F79" t="s">
+        <v>115</v>
+      </c>
+      <c r="G79" t="s">
+        <v>116</v>
+      </c>
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="6">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" s="10"/>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80" t="s">
+        <v>36</v>
+      </c>
+      <c r="G80" t="s">
+        <v>112</v>
+      </c>
+      <c r="H80" s="2"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="6">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F81" t="s">
+        <v>118</v>
+      </c>
+      <c r="G81" t="s">
+        <v>119</v>
+      </c>
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="6">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="H82" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="6">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="6">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="10"/>
+      <c r="E84">
+        <v>5</v>
+      </c>
+      <c r="F84" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" t="s">
+        <v>112</v>
+      </c>
+      <c r="H84" s="2"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="6">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>71</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="H85" s="2"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="6">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="H86" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="6">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H87" s="2"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="6">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="H88" s="2"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="6">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="2"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="6">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="H90" s="9"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="6">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>36</v>
+      </c>
+      <c r="D91" s="10"/>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>36</v>
+      </c>
+      <c r="G91" t="s">
+        <v>112</v>
+      </c>
+      <c r="H91" s="9"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="6">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>215</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="H92" s="9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="6">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>215</v>
+      </c>
+      <c r="D93" s="15"/>
+      <c r="H93" s="9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="6">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>215</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="H94" s="9">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="6">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D95" s="12"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="6">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" s="12"/>
+      <c r="H96" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="6">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>37</v>
+      </c>
+      <c r="D97" s="12"/>
+      <c r="H97" s="9" t="s">
+        <v>228</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B1048576 B1">
-      <formula1>$C$2:$C$57</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B98:B1048576 B1">
+      <formula1>$C$2:$C$97</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37 B4:B7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56 B35 B4:B7">
       <formula1>$C$2:$C$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -2373,8 +3065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/QA/testcases/EDockets/CASE/Create_DD_Case.xlsx
+++ b/QA/testcases/EDockets/CASE/Create_DD_Case.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="266">
   <si>
     <t>Step No</t>
   </si>
@@ -423,21 +423,9 @@
     <t>Case</t>
   </si>
   <si>
-    <t>Type Product name</t>
-  </si>
-  <si>
-    <t>Product name must be typed</t>
-  </si>
-  <si>
-    <t>Clear and Select filter option</t>
-  </si>
-  <si>
     <t>JURISDICTION_TEXTBOX</t>
   </si>
   <si>
-    <t>Jurisdiction must be selected</t>
-  </si>
-  <si>
     <t>TIME_ZONE</t>
   </si>
   <si>
@@ -468,12 +456,6 @@
     <t>NEXT_BUTTON</t>
   </si>
   <si>
-    <t>Click on search icon</t>
-  </si>
-  <si>
-    <t>Search icon should be clicked</t>
-  </si>
-  <si>
     <t>Enter should be  pressed</t>
   </si>
   <si>
@@ -534,9 +516,6 @@
     <t>Attorney detail should be verified</t>
   </si>
   <si>
-    <t xml:space="preserve"> Click on Attorney text</t>
-  </si>
-  <si>
     <t>Attorney text should be clicked</t>
   </si>
   <si>
@@ -712,13 +691,145 @@
   </si>
   <si>
     <t>19,93</t>
+  </si>
+  <si>
+    <t>babu@edocketspro.com,America1*</t>
+  </si>
+  <si>
+    <t>Page should be refreshed</t>
+  </si>
+  <si>
+    <t>Type Case Title</t>
+  </si>
+  <si>
+    <t>Case title should be typed</t>
+  </si>
+  <si>
+    <t>Type Client  id</t>
+  </si>
+  <si>
+    <t>Client id should be typed</t>
+  </si>
+  <si>
+    <t>Click on Matter id textbox</t>
+  </si>
+  <si>
+    <t>Matter id textbox should be clicked</t>
+  </si>
+  <si>
+    <t>Wait for element until present</t>
+  </si>
+  <si>
+    <t>Should wait until element present</t>
+  </si>
+  <si>
+    <t>Wait for element until not present</t>
+  </si>
+  <si>
+    <t>Should wait until element not present</t>
+  </si>
+  <si>
+    <t>Click on Jurisdiction label</t>
+  </si>
+  <si>
+    <t>Jurisdiction label should be clicked</t>
+  </si>
+  <si>
+    <t>Click on Court rule set</t>
+  </si>
+  <si>
+    <t>Court set rule must be clicked</t>
+  </si>
+  <si>
+    <t>Type Jurisdiction</t>
+  </si>
+  <si>
+    <t>Jurisdiction should be entered</t>
+  </si>
+  <si>
+    <t>Click on Court case search icon</t>
+  </si>
+  <si>
+    <t>Court case search icon should be clicked</t>
+  </si>
+  <si>
+    <t>Cases should be selected</t>
+  </si>
+  <si>
+    <t>Type cases</t>
+  </si>
+  <si>
+    <t>Cases should be entered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on search </t>
+  </si>
+  <si>
+    <t>Search should be clicked</t>
+  </si>
+  <si>
+    <t>Verify Enable docket checkbox is selected</t>
+  </si>
+  <si>
+    <t>Checkbox should be selected</t>
+  </si>
+  <si>
+    <t>Click on Attorney text</t>
+  </si>
+  <si>
+    <t>Switch to default content</t>
+  </si>
+  <si>
+    <t>Should be switched to Default content</t>
+  </si>
+  <si>
+    <t>Click on Open button</t>
+  </si>
+  <si>
+    <t>Open button should be clicked</t>
+  </si>
+  <si>
+    <t>Switch frame to Case details page</t>
+  </si>
+  <si>
+    <t>Frame should be switched to Case details page</t>
+  </si>
+  <si>
+    <t>Switch frame to Case details Content</t>
+  </si>
+  <si>
+    <t>Frame should be switched to Case details Content</t>
+  </si>
+  <si>
+    <t>Retrieve Client id</t>
+  </si>
+  <si>
+    <t>Client id should be retrieved</t>
+  </si>
+  <si>
+    <t>Retrieve Matter id</t>
+  </si>
+  <si>
+    <t>Matter id should be retrieved</t>
+  </si>
+  <si>
+    <t>Split the details</t>
+  </si>
+  <si>
+    <t>Details should be splitted</t>
+  </si>
+  <si>
+    <t>Check strings are matched</t>
+  </si>
+  <si>
+    <t>Strings should be matched</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,6 +849,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -758,6 +870,19 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -792,10 +917,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -812,8 +941,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -1183,7 +1314,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1193,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1281,12 +1412,14 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="16" t="s">
+        <v>222</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -1304,7 +1437,7 @@
         <v>81</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -1318,8 +1451,12 @@
       <c r="C6" s="3"/>
       <c r="D6" s="7"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
@@ -1460,10 +1597,10 @@
         <v>131</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="G13" t="s">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -1478,13 +1615,13 @@
         <v>6</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F14" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G14" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -1499,16 +1636,16 @@
         <v>6</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E15" s="11">
         <v>347</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>226</v>
       </c>
       <c r="G15" t="s">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1523,9 +1660,15 @@
         <v>6</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E16" s="11"/>
+      <c r="F16" t="s">
+        <v>228</v>
+      </c>
+      <c r="G16" t="s">
+        <v>229</v>
+      </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="15.75">
@@ -1539,9 +1682,15 @@
         <v>33</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E17" s="11"/>
+      <c r="F17" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" t="s">
+        <v>231</v>
+      </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="15.75">
@@ -1555,9 +1704,15 @@
         <v>33</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E18" s="11"/>
+      <c r="F18" t="s">
+        <v>232</v>
+      </c>
+      <c r="G18" t="s">
+        <v>233</v>
+      </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8">
@@ -1590,16 +1745,16 @@
         <v>6</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G20" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -1633,7 +1788,13 @@
         <v>6</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>210</v>
+        <v>203</v>
+      </c>
+      <c r="F22" t="s">
+        <v>234</v>
+      </c>
+      <c r="G22" t="s">
+        <v>235</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -1648,9 +1809,15 @@
         <v>33</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E23" s="11"/>
+      <c r="F23" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" t="s">
+        <v>231</v>
+      </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="15.75">
@@ -1664,9 +1831,15 @@
         <v>33</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E24" s="11"/>
+      <c r="F24" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" t="s">
+        <v>233</v>
+      </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
@@ -1699,16 +1872,16 @@
         <v>6</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c r="G26" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -1742,7 +1915,13 @@
         <v>6</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>225</v>
+        <v>218</v>
+      </c>
+      <c r="F28" t="s">
+        <v>236</v>
+      </c>
+      <c r="G28" t="s">
+        <v>237</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -1776,7 +1955,13 @@
         <v>6</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>219</v>
+        <v>212</v>
+      </c>
+      <c r="F30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" t="s">
+        <v>241</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -1810,7 +1995,13 @@
         <v>9</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
+      </c>
+      <c r="F32" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" t="s">
+        <v>242</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -1844,10 +2035,16 @@
         <v>9</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E34" t="s">
-        <v>224</v>
+        <v>217</v>
+      </c>
+      <c r="F34" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" t="s">
+        <v>244</v>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -1859,6 +2056,12 @@
         <v>113</v>
       </c>
       <c r="D35" s="7"/>
+      <c r="F35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" t="s">
+        <v>146</v>
+      </c>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="16.5" customHeight="1">
@@ -1872,7 +2075,13 @@
         <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>222</v>
+        <v>215</v>
+      </c>
+      <c r="F36" t="s">
+        <v>245</v>
+      </c>
+      <c r="G36" t="s">
+        <v>246</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -1900,9 +2109,15 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D38" s="7"/>
+      <c r="F38" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" t="s">
+        <v>193</v>
+      </c>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8">
@@ -1916,7 +2131,13 @@
         <v>6</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>223</v>
+        <v>216</v>
+      </c>
+      <c r="F39" t="s">
+        <v>247</v>
+      </c>
+      <c r="G39" t="s">
+        <v>248</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -1931,7 +2152,13 @@
         <v>6</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>204</v>
+        <v>197</v>
+      </c>
+      <c r="F40" t="s">
+        <v>236</v>
+      </c>
+      <c r="G40" t="s">
+        <v>237</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -1965,16 +2192,16 @@
         <v>6</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F42" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G42" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H42" s="2"/>
     </row>
@@ -2008,16 +2235,16 @@
         <v>6</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E44" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F44" t="s">
+        <v>135</v>
+      </c>
+      <c r="G44" t="s">
         <v>139</v>
-      </c>
-      <c r="G44" t="s">
-        <v>143</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -2051,13 +2278,13 @@
         <v>6</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E46" t="s">
         <v>122</v>
       </c>
       <c r="F46" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G46" t="s">
         <v>123</v>
@@ -2088,13 +2315,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F48" t="s">
         <v>124</v>
@@ -2134,13 +2361,13 @@
         <v>6</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F50" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G50" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H50" s="2"/>
     </row>
@@ -2174,13 +2401,13 @@
         <v>9</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F52" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G52" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H52" s="2"/>
     </row>
@@ -2195,13 +2422,13 @@
         <v>9</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F53" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G53" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H53" s="2"/>
     </row>
@@ -2216,16 +2443,16 @@
         <v>9</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F54" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G54" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H54" s="2"/>
     </row>
@@ -2262,7 +2489,7 @@
         <v>81</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H56" s="2"/>
     </row>
@@ -2296,13 +2523,13 @@
         <v>31</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F58" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G58" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H58" s="2">
         <v>53</v>
@@ -2319,13 +2546,13 @@
         <v>31</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F59" t="s">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="G59" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H59" s="2">
         <v>53</v>
@@ -2355,14 +2582,14 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D61" s="13"/>
       <c r="F61" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G61" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="H61" s="9"/>
     </row>
@@ -2396,13 +2623,13 @@
         <v>31</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F63" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G63" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H63" s="2">
         <v>53</v>
@@ -2419,13 +2646,13 @@
         <v>31</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F64" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G64" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H64" s="2">
         <v>53</v>
@@ -2442,16 +2669,16 @@
         <v>6</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E65" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F65" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G65" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H65" s="2"/>
     </row>
@@ -2485,16 +2712,16 @@
         <v>6</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E67" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F67" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G67" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="H67" s="2"/>
     </row>
@@ -2528,16 +2755,16 @@
         <v>9</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E69" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F69" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G69" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H69" s="2"/>
     </row>
@@ -2571,13 +2798,13 @@
         <v>9</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F71" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G71" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H71" s="2"/>
     </row>
@@ -2592,13 +2819,13 @@
         <v>9</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F72" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G72" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H72" s="2"/>
     </row>
@@ -2613,13 +2840,13 @@
         <v>9</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F73" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G73" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H73" s="2"/>
     </row>
@@ -2653,13 +2880,13 @@
         <v>31</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F75" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G75" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H75" s="2">
         <v>53</v>
@@ -2676,7 +2903,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F76" t="s">
         <v>124</v>
@@ -2713,6 +2940,12 @@
         <v>70</v>
       </c>
       <c r="D78" s="7"/>
+      <c r="F78" t="s">
+        <v>250</v>
+      </c>
+      <c r="G78" t="s">
+        <v>251</v>
+      </c>
       <c r="H78" s="2"/>
     </row>
     <row r="79" spans="1:8">
@@ -2787,7 +3020,13 @@
         <v>9</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>216</v>
+        <v>209</v>
+      </c>
+      <c r="F82" t="s">
+        <v>226</v>
+      </c>
+      <c r="G82" t="s">
+        <v>227</v>
       </c>
       <c r="H82" s="2">
         <v>13</v>
@@ -2804,7 +3043,13 @@
         <v>9</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>217</v>
+        <v>210</v>
+      </c>
+      <c r="F83" t="s">
+        <v>252</v>
+      </c>
+      <c r="G83" t="s">
+        <v>253</v>
       </c>
       <c r="H83" s="2"/>
     </row>
@@ -2835,6 +3080,12 @@
         <v>71</v>
       </c>
       <c r="D85" s="8"/>
+      <c r="F85" t="s">
+        <v>250</v>
+      </c>
+      <c r="G85" t="s">
+        <v>251</v>
+      </c>
       <c r="H85" s="2"/>
     </row>
     <row r="86" spans="1:8">
@@ -2848,7 +3099,13 @@
         <v>31</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="F86" t="s">
+        <v>254</v>
+      </c>
+      <c r="G86" t="s">
+        <v>255</v>
       </c>
       <c r="H86" s="2">
         <v>13</v>
@@ -2865,7 +3122,13 @@
         <v>6</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>211</v>
+        <v>204</v>
+      </c>
+      <c r="F87" t="s">
+        <v>256</v>
+      </c>
+      <c r="G87" t="s">
+        <v>257</v>
       </c>
       <c r="H87" s="2"/>
     </row>
@@ -2880,7 +3143,13 @@
         <v>9</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>212</v>
+        <v>205</v>
+      </c>
+      <c r="F88" t="s">
+        <v>195</v>
+      </c>
+      <c r="G88" t="s">
+        <v>196</v>
       </c>
       <c r="H88" s="2"/>
     </row>
@@ -2895,11 +3164,15 @@
         <v>9</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
+      <c r="F89" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H89" s="2"/>
     </row>
     <row r="90" spans="1:8">
@@ -2913,7 +3186,13 @@
         <v>9</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>214</v>
+        <v>207</v>
+      </c>
+      <c r="F90" t="s">
+        <v>260</v>
+      </c>
+      <c r="G90" t="s">
+        <v>261</v>
       </c>
       <c r="H90" s="9"/>
     </row>
@@ -2941,9 +3220,15 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D92" s="8"/>
+      <c r="F92" t="s">
+        <v>262</v>
+      </c>
+      <c r="G92" t="s">
+        <v>263</v>
+      </c>
       <c r="H92" s="9">
         <v>87</v>
       </c>
@@ -2953,9 +3238,15 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D93" s="15"/>
+      <c r="F93" t="s">
+        <v>262</v>
+      </c>
+      <c r="G93" t="s">
+        <v>263</v>
+      </c>
       <c r="H93" s="9">
         <v>88</v>
       </c>
@@ -2965,9 +3256,15 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D94" s="8"/>
+      <c r="F94" t="s">
+        <v>262</v>
+      </c>
+      <c r="G94" t="s">
+        <v>263</v>
+      </c>
       <c r="H94" s="9">
         <v>89</v>
       </c>
@@ -2981,10 +3278,14 @@
       </c>
       <c r="D95" s="12"/>
       <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
+      <c r="F95" t="s">
+        <v>264</v>
+      </c>
+      <c r="G95" t="s">
+        <v>265</v>
+      </c>
       <c r="H95" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2995,8 +3296,14 @@
         <v>37</v>
       </c>
       <c r="D96" s="12"/>
+      <c r="F96" t="s">
+        <v>264</v>
+      </c>
+      <c r="G96" t="s">
+        <v>265</v>
+      </c>
       <c r="H96" s="9" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3007,8 +3314,14 @@
         <v>37</v>
       </c>
       <c r="D97" s="12"/>
+      <c r="F97" t="s">
+        <v>264</v>
+      </c>
+      <c r="G97" t="s">
+        <v>265</v>
+      </c>
       <c r="H97" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3022,11 +3335,12 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
